--- a/data/input/pitch_deck_format.xlsx
+++ b/data/input/pitch_deck_format.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmicthermo/Desktop/Afairi-Work/Github/Simulation_UW/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1CE63A-1245-5444-B143-82DF94D5632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439EC4A3-A4A5-E747-8968-BDB2B4039EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="4300" windowWidth="26040" windowHeight="14940" xr2:uid="{9B297107-038E-824C-AAD3-9C0F394261EE}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="19660" windowHeight="21100" activeTab="1" xr2:uid="{9B297107-038E-824C-AAD3-9C0F394261EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +39,167 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+  <si>
+    <t>Values in kEUR</t>
+  </si>
+  <si>
+    <t>Market position</t>
+  </si>
+  <si>
+    <t>New market entries</t>
+  </si>
+  <si>
+    <t>Addressed market segments</t>
+  </si>
+  <si>
+    <t># Consumers</t>
+  </si>
+  <si>
+    <t>Transacted premium volume</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>YoY growth</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>o/w Origination</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>o/w Underwriting engine</t>
+  </si>
+  <si>
+    <t>o/w Back-office app</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>o/w Distribution channel</t>
+  </si>
+  <si>
+    <t>o/w expenses</t>
+  </si>
+  <si>
+    <t>o/w outsourcing</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>NOPAT</t>
+  </si>
+  <si>
+    <t>o/w Loss reserves</t>
+  </si>
+  <si>
+    <t>Cash from operating activities</t>
+  </si>
+  <si>
+    <t>Research and Development expenses</t>
+  </si>
+  <si>
+    <t>Business-expansion (market entry cost)</t>
+  </si>
+  <si>
+    <t>o/w Company and legal</t>
+  </si>
+  <si>
+    <t>o/w Build</t>
+  </si>
+  <si>
+    <t>o/w Partnership</t>
+  </si>
+  <si>
+    <t>o/w Market entry</t>
+  </si>
+  <si>
+    <t>Cash from investing activities</t>
+  </si>
+  <si>
+    <t>Cash flow / burn product 1</t>
+  </si>
+  <si>
+    <t>Total cash flow/burn</t>
+  </si>
+  <si>
+    <t>Funding requirement</t>
+  </si>
+  <si>
+    <t>Investment till end of 2024</t>
+  </si>
+  <si>
+    <t>Total investment</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Leave as is</t>
+  </si>
+  <si>
+    <t>to be calcuated</t>
+  </si>
+  <si>
+    <t>calc in excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =Net income *(1-0.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan to model </t>
+  </si>
+  <si>
+    <t># customer growth</t>
+  </si>
+  <si>
+    <t>Revenue assumptions</t>
+  </si>
+  <si>
+    <t># customers</t>
+  </si>
+  <si>
+    <t>In 2023 it starts in July</t>
+  </si>
+  <si>
+    <t>avg. premium</t>
+  </si>
+  <si>
+    <t>Total premiums</t>
+  </si>
+  <si>
+    <t>Additional cost assumptions</t>
+  </si>
+  <si>
+    <t>Research and development</t>
+  </si>
+  <si>
+    <t>monthly # customers</t>
+  </si>
+  <si>
+    <t>Working capital</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;# &quot;0"/>
+    <numFmt numFmtId="165" formatCode="#,###,;&quot;-&quot;#,###,;"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +207,141 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -62,15 +349,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{BCE8473D-3748-0040-A34F-8A5DDA40B93A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{8F2896A2-2E5C-EF44-930B-E04CEFC54B1A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,6 +573,114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Output"/>
+      <sheetName val="Input"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Business-expansion (market entry cost)</v>
+          </cell>
+          <cell r="C13">
+            <v>-1790000</v>
+          </cell>
+          <cell r="D13">
+            <v>-1790000</v>
+          </cell>
+          <cell r="E13">
+            <v>-1790000</v>
+          </cell>
+          <cell r="F13">
+            <v>-3580000</v>
+          </cell>
+          <cell r="G13">
+            <v>-895000</v>
+          </cell>
+          <cell r="H13">
+            <v>-895000</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>o/w Build</v>
+          </cell>
+          <cell r="C15">
+            <v>-300000</v>
+          </cell>
+          <cell r="D15">
+            <v>-300000</v>
+          </cell>
+          <cell r="E15">
+            <v>-300000</v>
+          </cell>
+          <cell r="F15">
+            <v>-600000</v>
+          </cell>
+          <cell r="G15">
+            <v>-150000</v>
+          </cell>
+          <cell r="H15">
+            <v>-150000</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>o/w Partnership</v>
+          </cell>
+          <cell r="C16">
+            <v>-360000</v>
+          </cell>
+          <cell r="D16">
+            <v>-360000</v>
+          </cell>
+          <cell r="E16">
+            <v>-360000</v>
+          </cell>
+          <cell r="F16">
+            <v>-720000</v>
+          </cell>
+          <cell r="G16">
+            <v>-180000</v>
+          </cell>
+          <cell r="H16">
+            <v>-180000</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>o/w Market entry</v>
+          </cell>
+          <cell r="C17">
+            <v>-1040000</v>
+          </cell>
+          <cell r="D17">
+            <v>-1040000</v>
+          </cell>
+          <cell r="E17">
+            <v>-1040000</v>
+          </cell>
+          <cell r="F17">
+            <v>-2080000</v>
+          </cell>
+          <cell r="G17">
+            <v>-520000</v>
+          </cell>
+          <cell r="H17">
+            <v>-520000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +980,1897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BAEAB3-6E25-DB45-8E30-F2707B3CCE65}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:M7" si="0">E7+1</f>
+        <v>2023</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="N7" s="32"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="32"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6">
+        <v>12</v>
+      </c>
+      <c r="L11" s="6">
+        <v>13</v>
+      </c>
+      <c r="M11" s="6">
+        <v>14</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>2100</v>
+      </c>
+      <c r="G13" s="7">
+        <v>15790.666666666666</v>
+      </c>
+      <c r="H13" s="7">
+        <v>52014.666666666664</v>
+      </c>
+      <c r="I13" s="7">
+        <v>125214.66666666666</v>
+      </c>
+      <c r="J13" s="7">
+        <v>251678.66666666666</v>
+      </c>
+      <c r="K13" s="7">
+        <v>408198.66666666669</v>
+      </c>
+      <c r="L13" s="7">
+        <v>611870.66666666674</v>
+      </c>
+      <c r="M13" s="7">
+        <v>865382.66666666674</v>
+      </c>
+      <c r="N13" s="32"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>756000</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5526733.333333333</v>
+      </c>
+      <c r="H14" s="7">
+        <v>15929491.666666666</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32868849.999999996</v>
+      </c>
+      <c r="J14" s="7">
+        <v>73406277.777777761</v>
+      </c>
+      <c r="K14" s="7">
+        <v>120889605.12820515</v>
+      </c>
+      <c r="L14" s="7">
+        <v>183561200.00000006</v>
+      </c>
+      <c r="M14" s="7">
+        <v>262499408.88888896</v>
+      </c>
+      <c r="N14" s="32"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="33"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="33"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12">
+        <f>E29*(1--0.3)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" ref="F30:M30" si="1">F29*(1--0.3)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="32"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12">
+        <f>SUM(E33:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" ref="F32:M32" si="2">SUM(F33:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="32"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="33"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12">
+        <f>SUM(E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" ref="F36:M36" si="3">SUM(F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="32"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="35"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16">
+        <f>[1]Input!A13</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="16" t="str">
+        <f>[1]Input!B13</f>
+        <v>Business-expansion (market entry cost)</v>
+      </c>
+      <c r="H38" s="16">
+        <f>[1]Input!C13</f>
+        <v>-1790000</v>
+      </c>
+      <c r="I38" s="16">
+        <f>[1]Input!D13</f>
+        <v>-1790000</v>
+      </c>
+      <c r="J38" s="16">
+        <f>[1]Input!E13</f>
+        <v>-1790000</v>
+      </c>
+      <c r="K38" s="16">
+        <f>[1]Input!F13</f>
+        <v>-3580000</v>
+      </c>
+      <c r="L38" s="16">
+        <f>[1]Input!G13</f>
+        <v>-895000</v>
+      </c>
+      <c r="M38" s="16">
+        <f>[1]Input!H13</f>
+        <v>-895000</v>
+      </c>
+      <c r="N38" s="32"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="33"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16">
+        <f>SUM(F40:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <f>SUM(G40:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" ref="H39:M39" si="4">SUM(H40:H43)</f>
+        <v>-1700000</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="4"/>
+        <v>-1700000</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="4"/>
+        <v>-1700000</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="4"/>
+        <v>-3400000</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="4"/>
+        <v>-850000</v>
+      </c>
+      <c r="M39" s="16">
+        <f t="shared" si="4"/>
+        <v>-850000</v>
+      </c>
+      <c r="N39" s="32"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="33"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16">
+        <f>[1]Input!A15</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="16" t="str">
+        <f>[1]Input!B15</f>
+        <v>o/w Build</v>
+      </c>
+      <c r="H40" s="16">
+        <f>[1]Input!C15</f>
+        <v>-300000</v>
+      </c>
+      <c r="I40" s="16">
+        <f>[1]Input!D15</f>
+        <v>-300000</v>
+      </c>
+      <c r="J40" s="16">
+        <f>[1]Input!E15</f>
+        <v>-300000</v>
+      </c>
+      <c r="K40" s="16">
+        <f>[1]Input!F15</f>
+        <v>-600000</v>
+      </c>
+      <c r="L40" s="16">
+        <f>[1]Input!G15</f>
+        <v>-150000</v>
+      </c>
+      <c r="M40" s="16">
+        <f>[1]Input!H15</f>
+        <v>-150000</v>
+      </c>
+      <c r="N40" s="32"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="33"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16">
+        <f>[1]Input!A16</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="16" t="str">
+        <f>[1]Input!B16</f>
+        <v>o/w Partnership</v>
+      </c>
+      <c r="H41" s="16">
+        <f>[1]Input!C16</f>
+        <v>-360000</v>
+      </c>
+      <c r="I41" s="16">
+        <f>[1]Input!D16</f>
+        <v>-360000</v>
+      </c>
+      <c r="J41" s="16">
+        <f>[1]Input!E16</f>
+        <v>-360000</v>
+      </c>
+      <c r="K41" s="16">
+        <f>[1]Input!F16</f>
+        <v>-720000</v>
+      </c>
+      <c r="L41" s="16">
+        <f>[1]Input!G16</f>
+        <v>-180000</v>
+      </c>
+      <c r="M41" s="16">
+        <f>[1]Input!H16</f>
+        <v>-180000</v>
+      </c>
+      <c r="N41" s="32"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="33"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16">
+        <f>[1]Input!A17</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="16" t="str">
+        <f>[1]Input!B17</f>
+        <v>o/w Market entry</v>
+      </c>
+      <c r="H42" s="16">
+        <f>[1]Input!C17</f>
+        <v>-1040000</v>
+      </c>
+      <c r="I42" s="16">
+        <f>[1]Input!D17</f>
+        <v>-1040000</v>
+      </c>
+      <c r="J42" s="16">
+        <f>[1]Input!E17</f>
+        <v>-1040000</v>
+      </c>
+      <c r="K42" s="16">
+        <f>[1]Input!F17</f>
+        <v>-2080000</v>
+      </c>
+      <c r="L42" s="16">
+        <f>[1]Input!G17</f>
+        <v>-520000</v>
+      </c>
+      <c r="M42" s="16">
+        <f>[1]Input!H17</f>
+        <v>-520000</v>
+      </c>
+      <c r="N42" s="32"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="33"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16">
+        <f>[1]Input!A18</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="16">
+        <f>[1]Input!B18</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <f>[1]Input!C18</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f>[1]Input!D18</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <f>[1]Input!E18</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <f>[1]Input!F18</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <f>[1]Input!G18</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <f>[1]Input!H18</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="32"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="33"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18">
+        <f>SUM(F38:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" ref="G44:M44" si="5">SUM(G38:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="5"/>
+        <v>-3490000</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="5"/>
+        <v>-3490000</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="5"/>
+        <v>-3490000</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" si="5"/>
+        <v>-6980000</v>
+      </c>
+      <c r="L44" s="18">
+        <f t="shared" si="5"/>
+        <v>-1745000</v>
+      </c>
+      <c r="M44" s="18">
+        <f t="shared" si="5"/>
+        <v>-1745000</v>
+      </c>
+      <c r="N44" s="32"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="33"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="33"/>
+    </row>
+    <row r="47" spans="2:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="18">
+        <f>SUM(E36,E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <f>SUM(F36,F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="18">
+        <f>SUM(G36,G44)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" ref="H47:M47" si="6">SUM(H36,H44)</f>
+        <v>-3490000</v>
+      </c>
+      <c r="I47" s="18">
+        <f t="shared" si="6"/>
+        <v>-3490000</v>
+      </c>
+      <c r="J47" s="18">
+        <f t="shared" si="6"/>
+        <v>-3490000</v>
+      </c>
+      <c r="K47" s="18">
+        <f t="shared" si="6"/>
+        <v>-6980000</v>
+      </c>
+      <c r="L47" s="18">
+        <f t="shared" si="6"/>
+        <v>-1745000</v>
+      </c>
+      <c r="M47" s="18">
+        <f t="shared" si="6"/>
+        <v>-1745000</v>
+      </c>
+      <c r="N47" s="32"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="33"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="33"/>
+    </row>
+    <row r="49" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="18">
+        <f>E47</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <f>F47</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="18">
+        <f t="shared" ref="G49:M49" si="7">G47</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="7"/>
+        <v>-3490000</v>
+      </c>
+      <c r="I49" s="18">
+        <f t="shared" si="7"/>
+        <v>-3490000</v>
+      </c>
+      <c r="J49" s="18">
+        <f t="shared" si="7"/>
+        <v>-3490000</v>
+      </c>
+      <c r="K49" s="18">
+        <f t="shared" si="7"/>
+        <v>-6980000</v>
+      </c>
+      <c r="L49" s="18">
+        <f t="shared" si="7"/>
+        <v>-1745000</v>
+      </c>
+      <c r="M49" s="18">
+        <f t="shared" si="7"/>
+        <v>-1745000</v>
+      </c>
+      <c r="N49" s="32"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="33"/>
+    </row>
+    <row r="50" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B50" s="36"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="33"/>
+    </row>
+    <row r="51" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40">
+        <f>SUM(E49:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="43">
+        <f>SUMIF(E49:K49,"&lt;0")</f>
+        <v>-17450000</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="33"/>
+    </row>
+    <row r="52" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5B88A4-4D76-C340-A0EB-2A338890399D}">
+  <dimension ref="B2:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <f>C6+1</f>
+        <v>2024</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:J6" si="0">D6+1</f>
+        <v>2025</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="53">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="53">
+        <v>15790.666666666701</v>
+      </c>
+      <c r="E7" s="53">
+        <v>52014.666666666664</v>
+      </c>
+      <c r="F7" s="53">
+        <v>125214.66666666666</v>
+      </c>
+      <c r="G7" s="53">
+        <v>251678.66666666666</v>
+      </c>
+      <c r="H7" s="53">
+        <v>408198.66666666669</v>
+      </c>
+      <c r="I7" s="53">
+        <v>611870.66666666674</v>
+      </c>
+      <c r="J7" s="53">
+        <v>865382.66666666674</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="54">
+        <v>360</v>
+      </c>
+      <c r="D8" s="54">
+        <v>350</v>
+      </c>
+      <c r="E8" s="54">
+        <v>306.25</v>
+      </c>
+      <c r="F8" s="54">
+        <v>262.5</v>
+      </c>
+      <c r="G8" s="54">
+        <v>291.66666666666663</v>
+      </c>
+      <c r="H8" s="54">
+        <v>296.15384615384619</v>
+      </c>
+      <c r="I8" s="54">
+        <v>300.00000000000006</v>
+      </c>
+      <c r="J8" s="54">
+        <v>303.33333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="53">
+        <f>C7*C8</f>
+        <v>756000</v>
+      </c>
+      <c r="D9" s="53">
+        <f t="shared" ref="D9:J9" si="1">D7*D8</f>
+        <v>5526733.3333333451</v>
+      </c>
+      <c r="E9" s="53">
+        <f t="shared" si="1"/>
+        <v>15929491.666666666</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="1"/>
+        <v>32868849.999999996</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="1"/>
+        <v>73406277.777777761</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="1"/>
+        <v>120889605.12820515</v>
+      </c>
+      <c r="I9" s="53">
+        <f t="shared" si="1"/>
+        <v>183561200.00000006</v>
+      </c>
+      <c r="J9" s="53">
+        <f t="shared" si="1"/>
+        <v>262499408.88888896</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="53">
+        <v>-475833.33333333302</v>
+      </c>
+      <c r="D12" s="53">
+        <v>-2472000</v>
+      </c>
+      <c r="E12" s="53">
+        <v>-3604655.5183946486</v>
+      </c>
+      <c r="F12" s="53">
+        <v>-5256286.9766557412</v>
+      </c>
+      <c r="G12" s="53">
+        <v>-7664686.0261602113</v>
+      </c>
+      <c r="H12" s="53">
+        <v>-11176599.021424254</v>
+      </c>
+      <c r="I12" s="53">
+        <v>-16297649.409167139</v>
+      </c>
+      <c r="J12" s="53">
+        <v>-23765134.255507935</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="53">
+        <f t="shared" ref="C13:J13" si="2">SUM(C14:C17)</f>
+        <v>-1790000</v>
+      </c>
+      <c r="D13" s="53">
+        <f t="shared" si="2"/>
+        <v>-1790000</v>
+      </c>
+      <c r="E13" s="53">
+        <f t="shared" si="2"/>
+        <v>-1790000</v>
+      </c>
+      <c r="F13" s="53">
+        <f t="shared" si="2"/>
+        <v>-3580000</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="2"/>
+        <v>-895000</v>
+      </c>
+      <c r="H13" s="53">
+        <f t="shared" si="2"/>
+        <v>-895000</v>
+      </c>
+      <c r="I13" s="53">
+        <f t="shared" si="2"/>
+        <v>-895000</v>
+      </c>
+      <c r="J13" s="53">
+        <f t="shared" si="2"/>
+        <v>-895000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="56">
+        <v>-90000</v>
+      </c>
+      <c r="D14" s="56">
+        <v>-90000</v>
+      </c>
+      <c r="E14" s="56">
+        <v>-90000</v>
+      </c>
+      <c r="F14" s="56">
+        <v>-180000</v>
+      </c>
+      <c r="G14" s="56">
+        <v>-45000</v>
+      </c>
+      <c r="H14" s="56">
+        <v>-45000</v>
+      </c>
+      <c r="I14" s="56">
+        <v>-45000</v>
+      </c>
+      <c r="J14" s="56">
+        <v>-45000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="56">
+        <v>-300000</v>
+      </c>
+      <c r="D15" s="56">
+        <v>-300000</v>
+      </c>
+      <c r="E15" s="56">
+        <v>-300000</v>
+      </c>
+      <c r="F15" s="56">
+        <v>-600000</v>
+      </c>
+      <c r="G15" s="56">
+        <v>-150000</v>
+      </c>
+      <c r="H15" s="56">
+        <v>-150000</v>
+      </c>
+      <c r="I15" s="56">
+        <v>-150000</v>
+      </c>
+      <c r="J15" s="56">
+        <v>-150000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="56">
+        <v>-360000</v>
+      </c>
+      <c r="D16" s="56">
+        <v>-360000</v>
+      </c>
+      <c r="E16" s="56">
+        <v>-360000</v>
+      </c>
+      <c r="F16" s="56">
+        <v>-720000</v>
+      </c>
+      <c r="G16" s="56">
+        <v>-180000</v>
+      </c>
+      <c r="H16" s="56">
+        <v>-180000</v>
+      </c>
+      <c r="I16" s="56">
+        <v>-180000</v>
+      </c>
+      <c r="J16" s="56">
+        <v>-180000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="56">
+        <v>-1040000</v>
+      </c>
+      <c r="D17" s="56">
+        <v>-1040000</v>
+      </c>
+      <c r="E17" s="56">
+        <v>-1040000</v>
+      </c>
+      <c r="F17" s="56">
+        <v>-2080000</v>
+      </c>
+      <c r="G17" s="56">
+        <v>-520000</v>
+      </c>
+      <c r="H17" s="56">
+        <v>-520000</v>
+      </c>
+      <c r="I17" s="56">
+        <v>-520000</v>
+      </c>
+      <c r="J17" s="56">
+        <v>-520000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>2023</v>
+      </c>
+      <c r="D22">
+        <f>C22+1</f>
+        <v>2024</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22" si="3">D22+1</f>
+        <v>2025</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="4">E22+1</f>
+        <v>2026</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22" si="5">F22+1</f>
+        <v>2027</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="6">G22+1</f>
+        <v>2028</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="7">H22+1</f>
+        <v>2029</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="8">I22+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="53">
+        <f>C7/6</f>
+        <v>350</v>
+      </c>
+      <c r="D23" s="53">
+        <f>(D7-C7)/12</f>
+        <v>1140.8888888888916</v>
+      </c>
+      <c r="E23" s="53">
+        <f t="shared" ref="E23:J23" si="9">(E7-D7)/12</f>
+        <v>3018.6666666666638</v>
+      </c>
+      <c r="F23" s="53">
+        <f t="shared" si="9"/>
+        <v>6100</v>
+      </c>
+      <c r="G23" s="53">
+        <f t="shared" si="9"/>
+        <v>10538.666666666666</v>
+      </c>
+      <c r="H23" s="53">
+        <f t="shared" si="9"/>
+        <v>13043.333333333336</v>
+      </c>
+      <c r="I23" s="53">
+        <f t="shared" si="9"/>
+        <v>16972.666666666672</v>
+      </c>
+      <c r="J23" s="53">
+        <f t="shared" si="9"/>
+        <v>21126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="54">
+        <v>360</v>
+      </c>
+      <c r="D24" s="54">
+        <v>350</v>
+      </c>
+      <c r="E24" s="54">
+        <v>306.25</v>
+      </c>
+      <c r="F24" s="54">
+        <v>262.5</v>
+      </c>
+      <c r="G24" s="54">
+        <v>291.66666666666663</v>
+      </c>
+      <c r="H24" s="54">
+        <v>296.15384615384619</v>
+      </c>
+      <c r="I24" s="54">
+        <v>300.00000000000006</v>
+      </c>
+      <c r="J24" s="54">
+        <v>303.33333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="53">
+        <f>C23*C24</f>
+        <v>126000</v>
+      </c>
+      <c r="D25" s="53">
+        <f t="shared" ref="D25:J25" si="10">D23*D24</f>
+        <v>399311.11111111206</v>
+      </c>
+      <c r="E25" s="53">
+        <f t="shared" si="10"/>
+        <v>924466.66666666581</v>
+      </c>
+      <c r="F25" s="53">
+        <f t="shared" si="10"/>
+        <v>1601250</v>
+      </c>
+      <c r="G25" s="53">
+        <f t="shared" si="10"/>
+        <v>3073777.7777777771</v>
+      </c>
+      <c r="H25" s="53">
+        <f t="shared" si="10"/>
+        <v>3862833.3333333344</v>
+      </c>
+      <c r="I25" s="53">
+        <f t="shared" si="10"/>
+        <v>5091800.0000000028</v>
+      </c>
+      <c r="J25" s="53">
+        <f t="shared" si="10"/>
+        <v>6408220.0000000009</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>